--- a/td_toolkits_v3/static/sheets/optical_condition_upload_template.xlsx
+++ b/td_toolkits_v3/static/sheets/optical_condition_upload_template.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="upload" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Example" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -209,7 +209,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="12.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14"/>
